--- a/docs/assets/disciplinas/LOB1031.xlsx
+++ b/docs/assets/disciplinas/LOB1031.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EF-9,EM-8,EA-5,EB-8,EP-10,EQD-9,EQN-12</t>
+    <t>EF-9,EM-8,EB-8,EP-10,EQD-9,EQN-10</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/docs/assets/disciplinas/LOB1031.xlsx
+++ b/docs/assets/disciplinas/LOB1031.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,8 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Possibilitar aos alunos da disciplina o conhecimento necessário para a utilização dos conceitos da psicologia em ambiente de trabalho.
- Favorecer o reconhecimento das necessidades dos trabalhadores tanto na sua área de atuação quanto nos relacionamentos humanos que terá na empresa.</t>
+    <t>8188658 - Maria Auxiliadora Motta Barreto</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -84,13 +83,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>8188658 - Maria Auxiliadora Motta Barreto</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1 - Introdução a Psicologia aplicada ao trabalho.  2 - Conceito de Comunicação. 3 - Relações Humanas no Trabalho. 4 - Psicologia nas Organizações de Trabalho. 5 - Recrutamento e Seleção e 6 - Motivação.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -107,14 +103,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1.Introdução: conceituar psicologia como ciência e como aplicação; a psicologia aplicada ao trabalho. A psicologia nas relações humanas no trabalho.
-2.Conceito de Comunicação: sistemas, funções, axiomas da comunicação humana. Processos de comunicação e o convívio sócio-comunicacional na empresa.
-3.Relações Humanas no Trabalho: o papel das máscaras na interação humana; relações humanas em grupos; como participar de um grupo de trabalho.
-4.Psicologia nas Organizações de Trabalho: conceitos de organização e de trabalho. Organização e trabalho e sua importância na saúde mental e produtividade do trabalhador: estresse, síndrome de burnout, síndrome de Karoshi; L.E.R.; qualidade de vida; assédios sexual e moral no ambiente de trabalho; álcool e drogas no trabalho; transtornos mentais na empresa.
-5.Recrutamento e Seleção: recrutamento e seleção de pessoal; colocação e acompanhamento; avaliação de desempenho; treinamento e educação; medidas de avaliação e sua importância na seleção; experiências práticas em sala de aula como facilitadoras do processo de seleção.
-6.Motivação: as necessidades básicas e psicológicas do ser humano; motivação e conflitos; fatores esquecidos como motivadores na empresa: inveja, ciúme, medo, abuso de poder. Avaliação de motivação.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -132,32 +120,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>utilizar-se-á provas dissertativas com estudo de caso, para levar os alunos à maior reflexão sobre a utilização dessa ciência para o futuro engenheiro em seu trabalho cotidiano em empresas.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>(P1+ P2) : 2 = Média.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Trabalho e nova avaliação para recuperação da nota necessária para aprovação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>CARVALHO, A.V. e NASCIMENTO, L.P.  Administração de Recursos Humanos. 3ª. Ed., São Paulo: Pioneira, 2002.
-CHIAVENATO, I.  Recursos Humanos. 5ª. Ed., São Paulo: Atlas, 2002.
-CHIAVENATO, I. Introdução à Teoria Geral da Administração. 3a. Ed., Rio de Janeiro: Elsevier, 2004.
-MAXIMIANO, A.C. AMARU  Teoria Geral da Administração: da Revolução Urbana à Revolução Digital. 6ª. Ed., São Paulo: Atlas, 2008.
-NEWSTROM, J. W. Comportamento Organizacional: o Comportamento Humano no Trabalho. São Paulo: McGraw-Hill, 2008.
-SPECTOR, P. Psicologia nas Organizações. São Paulo: McGraw-Hill, 2002.
-ROBBINS, S. P. Fundamentos do Comportamento Organizacional. 8ª. Ed., São Paulo: Pearson Prentice Hall, 2009.
-TOLEDO, F.  O que são Recursos Humanos- Primeiros Passos. São Paulo: Brasiliense, 2001.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -520,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,34 +629,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -692,77 +673,66 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>41</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOB1031.xlsx
+++ b/docs/assets/disciplinas/LOB1031.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,8 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>8188658 - Maria Auxiliadora Motta Barreto</t>
+    <t>Possibilitar aos alunos da disciplina o conhecimento necessário para a utilização dos conceitos da psicologia em ambiente de trabalho.
+ Favorecer o reconhecimento das necessidades dos trabalhadores tanto na sua área de atuação quanto nos relacionamentos humanos que terá na empresa.</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -83,10 +84,13 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
+    <t>8188658 - Maria Auxiliadora Motta Barreto</t>
+  </si>
+  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>1 - Introdução a Psicologia aplicada ao trabalho.  2 - Conceito de Comunicação. 3 - Relações Humanas no Trabalho. 4 - Psicologia nas Organizações de Trabalho. 5 - Recrutamento e Seleção e 6 - Motivação.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -103,6 +107,14 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1.Introdução: conceituar psicologia como ciência e como aplicação; a psicologia aplicada ao trabalho. A psicologia nas relações humanas no trabalho.
+2.Conceito de Comunicação: sistemas, funções, axiomas da comunicação humana. Processos de comunicação e o convívio sócio-comunicacional na empresa.
+3.Relações Humanas no Trabalho: o papel das máscaras na interação humana; relações humanas em grupos; como participar de um grupo de trabalho.
+4.Psicologia nas Organizações de Trabalho: conceitos de organização e de trabalho. Organização e trabalho e sua importância na saúde mental e produtividade do trabalhador: estresse, síndrome de burnout, síndrome de Karoshi; L.E.R.; qualidade de vida; assédios sexual e moral no ambiente de trabalho; álcool e drogas no trabalho; transtornos mentais na empresa.
+5.Recrutamento e Seleção: recrutamento e seleção de pessoal; colocação e acompanhamento; avaliação de desempenho; treinamento e educação; medidas de avaliação e sua importância na seleção; experiências práticas em sala de aula como facilitadoras do processo de seleção.
+6.Motivação: as necessidades básicas e psicológicas do ser humano; motivação e conflitos; fatores esquecidos como motivadores na empresa: inveja, ciúme, medo, abuso de poder. Avaliação de motivação.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -120,22 +132,32 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>utilizar-se-á provas dissertativas com estudo de caso, para levar os alunos à maior reflexão sobre a utilização dessa ciência para o futuro engenheiro em seu trabalho cotidiano em empresas.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>utilizar-se-á provas dissertativas com estudo de caso, para levar os alunos à maior reflexão sobre a utilização dessa ciência para o futuro engenheiro em seu trabalho cotidiano em empresas.</t>
+    <t>(P1+ P2) : 2 = Média.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>(P1+ P2) : 2 = Média.</t>
+    <t>Trabalho e nova avaliação para recuperação da nota necessária para aprovação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Trabalho e nova avaliação para recuperação da nota necessária para aprovação.</t>
+    <t>CARVALHO, A.V. e NASCIMENTO, L.P.  Administração de Recursos Humanos. 3ª. Ed., São Paulo: Pioneira, 2002.
+CHIAVENATO, I.  Recursos Humanos. 5ª. Ed., São Paulo: Atlas, 2002.
+CHIAVENATO, I. Introdução à Teoria Geral da Administração. 3a. Ed., Rio de Janeiro: Elsevier, 2004.
+MAXIMIANO, A.C. AMARU  Teoria Geral da Administração: da Revolução Urbana à Revolução Digital. 6ª. Ed., São Paulo: Atlas, 2008.
+NEWSTROM, J. W. Comportamento Organizacional: o Comportamento Humano no Trabalho. São Paulo: McGraw-Hill, 2008.
+SPECTOR, P. Psicologia nas Organizações. São Paulo: McGraw-Hill, 2002.
+ROBBINS, S. P. Fundamentos do Comportamento Organizacional. 8ª. Ed., São Paulo: Pearson Prentice Hall, 2009.
+TOLEDO, F.  O que são Recursos Humanos- Primeiros Passos. São Paulo: Brasiliense, 2001.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -498,13 +520,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -629,37 +651,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -673,66 +692,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
